--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC390" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC464" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iCC644" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="iCC389" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="iCC431" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="iCC470" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -479,7 +479,7 @@
         <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006312151459031245</v>
+        <v>0.005615914621240627</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +502,7 @@
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05949565555006571</v>
+        <v>-0.05293322317636368</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0910787571555272</v>
+        <v>-0.08103267599232393</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03432464755476608</v>
+        <v>-0.03053860341008528</v>
       </c>
     </row>
     <row r="6">
@@ -571,7 +571,7 @@
         <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1590862725067164</v>
+        <v>-0.1415388920256131</v>
       </c>
     </row>
     <row r="7">
@@ -594,7 +594,7 @@
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01636365010972563</v>
+        <v>-0.01455872256940074</v>
       </c>
     </row>
     <row r="8">
@@ -617,7 +617,7 @@
         <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08829389000732434</v>
+        <v>-0.07855498257236762</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003117037667993998</v>
+        <v>-0.002773225187681391</v>
       </c>
     </row>
     <row r="10">
@@ -663,7 +663,7 @@
         <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2908985300076621</v>
+        <v>0.258812121123938</v>
       </c>
     </row>
     <row r="11">
@@ -686,7 +686,7 @@
         <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1499974129726104</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
     <row r="12">
@@ -709,191 +709,191 @@
         <v>-1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001709643885521062</v>
+        <v>-0.00152106839579637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>glc__aD_e</t>
+          <t>gln__L_e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EX_glc__aD_e</t>
+          <t>EX_gln__L_e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>glc__aD_e</t>
+          <t>gln__L_e</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>9.379999999999988</v>
+        <v>-0.05179353927555443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>gln__L_e</t>
+          <t>h2o_e</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EX_gln__L_e</t>
+          <t>EX_h2o_e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gln__L_e</t>
+          <t>h2o_e</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05821467856189738</v>
+        <v>-2.700236792485701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>h2o_e</t>
+          <t>h2s_e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EX_h2o_e</t>
+          <t>EX_h2s_e</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>h2o_e</t>
+          <t>h2s_e</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>-1</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.236445455551344</v>
+        <v>0.002459690934719957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>h2s_e</t>
+          <t>h_e</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EX_h2s_e</t>
+          <t>EX_h_e</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>h2s_e</t>
+          <t>h_e</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.002764632792606177</v>
+        <v>17.54550431365303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>h_e</t>
+          <t>his__L_e</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EX_h_e</t>
+          <t>EX_his__L_e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>h_e</t>
+          <t>his__L_e</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>-1</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.39493638425925</v>
+        <v>-0.007879872938520972</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>his__L_e</t>
+          <t>ile__L_e</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EX_his__L_e</t>
+          <t>EX_ile__L_e</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>his__L_e</t>
+          <t>ile__L_e</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008856785549720126</v>
+        <v>-0.02663977743712169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ile__L_e</t>
+          <t>lac__D_e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EX_ile__L_e</t>
+          <t>EX_lac__D_e</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ile__L_e</t>
+          <t>lac__D_e</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>-1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02994246197796501</v>
+        <v>18.01024750675014</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>lac__D_e</t>
+          <t>lcts_e</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EX_lac__D_e</t>
+          <t>EX_lcts_e</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lac__D_e</t>
+          <t>lcts_e</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>-17.91729643106044</v>
+        <v>-4.689999999999992</v>
       </c>
     </row>
     <row r="21">
@@ -916,7 +916,7 @@
         <v>-1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03741996054845004</v>
+        <v>-0.03329250017751323</v>
       </c>
     </row>
     <row r="22">
@@ -939,7 +939,7 @@
         <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05218832633927838</v>
+        <v>-0.04643189993920267</v>
       </c>
     </row>
     <row r="23">
@@ -962,7 +962,7 @@
         <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01894785360022246</v>
+        <v>-0.01685788574074352</v>
       </c>
     </row>
     <row r="24">
@@ -985,7 +985,7 @@
         <v>-1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002169104861130117</v>
+        <v>-0.001929850350342321</v>
       </c>
     </row>
     <row r="25">
@@ -1008,7 +1008,7 @@
         <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01743308006511028</v>
+        <v>-0.01551019329405269</v>
       </c>
     </row>
     <row r="26">
@@ -1031,7 +1031,7 @@
         <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2413093022578967</v>
+        <v>-0.2146926365102606</v>
       </c>
     </row>
     <row r="27">
@@ -1054,7 +1054,7 @@
         <v>-1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004465728630923087</v>
+        <v>-0.003973154141764321</v>
       </c>
     </row>
     <row r="28">
@@ -1077,7 +1077,7 @@
         <v>-1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01402929801863865</v>
+        <v>-0.01248185192956489</v>
       </c>
     </row>
     <row r="29">
@@ -1100,7 +1100,7 @@
         <v>-1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003081328389877157</v>
+        <v>-0.002741454679893054</v>
       </c>
     </row>
     <row r="30">
@@ -1123,7 +1123,7 @@
         <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004661545768636172</v>
+        <v>-0.004147372446554705</v>
       </c>
     </row>
     <row r="31">
@@ -1146,7 +1146,7 @@
         <v>-1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04469070904178399</v>
+        <v>-0.0397612775882099</v>
       </c>
     </row>
     <row r="32">
@@ -1169,7 +1169,7 @@
         <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003973267715668737</v>
+        <v>-0.003535012175064629</v>
       </c>
     </row>
     <row r="33">
@@ -1192,7 +1192,7 @@
         <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01590157057527916</v>
+        <v>-0.01414761088576692</v>
       </c>
     </row>
     <row r="34">
@@ -1215,7 +1215,7 @@
         <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02695052910027034</v>
+        <v>-0.02397785785191028</v>
       </c>
     </row>
     <row r="35">
@@ -1238,11 +1238,11 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1499974129726104</v>
+        <v>0.1334525431033358</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1302,7 +1302,7 @@
         <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1877407878065268</v>
+        <v>0.1877407878065264</v>
       </c>
     </row>
     <row r="3">
@@ -1325,7 +1325,7 @@
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4905257867481598</v>
+        <v>0.4905257867479818</v>
       </c>
     </row>
     <row r="4">
@@ -1348,7 +1348,7 @@
         <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.096985237862825</v>
+        <v>2.09698523786264</v>
       </c>
     </row>
     <row r="5">
@@ -1371,7 +1371,7 @@
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.112372238570814</v>
+        <v>-0.1123722385708142</v>
       </c>
     </row>
     <row r="6">
@@ -1394,7 +1394,7 @@
         <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1417,7 +1417,7 @@
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1633262761687506</v>
+        <v>-0.1633262761687503</v>
       </c>
     </row>
     <row r="8">
@@ -1440,7 +1440,7 @@
         <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1812191484736148</v>
+        <v>-0.1812191484736144</v>
       </c>
     </row>
     <row r="9">
@@ -1463,7 +1463,7 @@
         <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2316738602353776</v>
+        <v>-0.2316738602353771</v>
       </c>
     </row>
     <row r="10">
@@ -1486,7 +1486,7 @@
         <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002465920842527562</v>
+        <v>-0.002465920842527557</v>
       </c>
     </row>
     <row r="11">
@@ -1509,7 +1509,7 @@
         <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2051629747203503</v>
+        <v>0.2051629747203502</v>
       </c>
     </row>
     <row r="12">
@@ -1532,7 +1532,7 @@
         <v>-1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02290282490637679</v>
+        <v>-0.02290282490619616</v>
       </c>
     </row>
     <row r="13">
@@ -1555,7 +1555,7 @@
         <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2362467848974736</v>
+        <v>0.2362467848974731</v>
       </c>
     </row>
     <row r="14">
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001353057958132026</v>
+        <v>-0.001353057958132023</v>
       </c>
     </row>
     <row r="15">
@@ -1601,7 +1601,7 @@
         <v>-1</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.420900997735936</v>
+        <v>3.420900997735748</v>
       </c>
     </row>
     <row r="16">
@@ -1624,7 +1624,7 @@
         <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.624</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="17">
@@ -1647,7 +1647,7 @@
         <v>-1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6558558204645505</v>
+        <v>-0.655855820464549</v>
       </c>
     </row>
     <row r="18">
@@ -1670,7 +1670,7 @@
         <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01270857524920676</v>
+        <v>0.01270857524920673</v>
       </c>
     </row>
     <row r="19">
@@ -1693,7 +1693,7 @@
         <v>-1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00195867169831912</v>
+        <v>-0.001958671698319116</v>
       </c>
     </row>
     <row r="20">
@@ -1716,7 +1716,7 @@
         <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1078026583241888</v>
+        <v>-0.1078026583241886</v>
       </c>
     </row>
     <row r="21">
@@ -1739,7 +1739,7 @@
         <v>-1</v>
       </c>
       <c r="E21" t="n">
-        <v>13.37424138707399</v>
+        <v>-13.37424138707366</v>
       </c>
     </row>
     <row r="22">
@@ -1762,7 +1762,7 @@
         <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>-48.90502782262187</v>
+        <v>48.90502782262153</v>
       </c>
     </row>
     <row r="23">
@@ -1785,7 +1785,7 @@
         <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07419574183187518</v>
+        <v>-0.07419574183187502</v>
       </c>
     </row>
     <row r="24">
@@ -1808,7 +1808,7 @@
         <v>-1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2901390997847701</v>
+        <v>-0.2901390997847695</v>
       </c>
     </row>
     <row r="25">
@@ -1831,7 +1831,7 @@
         <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>-48.218157504259</v>
+        <v>48.218157504259</v>
       </c>
     </row>
     <row r="26">
@@ -1854,7 +1854,7 @@
         <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>27.624</v>
+        <v>-27.624</v>
       </c>
     </row>
     <row r="27">
@@ -1877,7 +1877,7 @@
         <v>-1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3904528449010684</v>
+        <v>-0.3904528449010675</v>
       </c>
     </row>
     <row r="28">
@@ -1900,7 +1900,7 @@
         <v>-1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3835186294917692</v>
+        <v>-0.3835186294917683</v>
       </c>
     </row>
     <row r="29">
@@ -1923,7 +1923,7 @@
         <v>-1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09984413504507038</v>
+        <v>-0.09984413504507017</v>
       </c>
     </row>
     <row r="30">
@@ -1946,7 +1946,7 @@
         <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.001716048947572713</v>
+        <v>-0.001716048947572713</v>
       </c>
     </row>
     <row r="31">
@@ -1969,7 +1969,7 @@
         <v>-1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9339053982219809</v>
+        <v>-0.9339053982219951</v>
       </c>
     </row>
     <row r="32">
@@ -1992,7 +1992,7 @@
         <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003535009705831996</v>
+        <v>-0.003535009705831768</v>
       </c>
     </row>
     <row r="33">
@@ -2015,7 +2015,7 @@
         <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006653649286002017</v>
+        <v>-0.006653649286002002</v>
       </c>
     </row>
     <row r="34">
@@ -2038,7 +2038,7 @@
         <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003589131832169998</v>
+        <v>-0.003589131832169991</v>
       </c>
     </row>
     <row r="35">
@@ -2061,7 +2061,7 @@
         <v>-1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003680356427515399</v>
+        <v>-0.003680356427515391</v>
       </c>
     </row>
     <row r="36">
@@ -2084,7 +2084,7 @@
         <v>-1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -2107,7 +2107,7 @@
         <v>-1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004046397132203478</v>
+        <v>-0.00404639713220347</v>
       </c>
     </row>
     <row r="38">
@@ -2130,7 +2130,7 @@
         <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002261012999670112</v>
+        <v>-0.002261012999670107</v>
       </c>
     </row>
     <row r="39">
@@ -2153,7 +2153,7 @@
         <v>-1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4651773096820203</v>
+        <v>-0.4651773096820193</v>
       </c>
     </row>
     <row r="40">
@@ -2176,7 +2176,7 @@
         <v>-1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03207386005895423</v>
+        <v>-0.03207386005895416</v>
       </c>
     </row>
     <row r="41">
@@ -2199,7 +2199,7 @@
         <v>-1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1244792575354402</v>
+        <v>-0.1244792575354391</v>
       </c>
     </row>
     <row r="42">
@@ -2222,7 +2222,7 @@
         <v>-1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1746342705064307</v>
+        <v>-0.1746342705064303</v>
       </c>
     </row>
     <row r="43">
@@ -2245,7 +2245,7 @@
         <v>-1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.281690092635853</v>
+        <v>-0.2816900926358524</v>
       </c>
     </row>
     <row r="44">
@@ -2268,11 +2268,11 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9599355516605014</v>
+        <v>0.9599355516604993</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2332,7 +2332,7 @@
         <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0174036812656474</v>
+        <v>0.0174036812656474</v>
       </c>
     </row>
     <row r="3">
@@ -2355,7 +2355,7 @@
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.30943830964409</v>
+        <v>0.30943830964409</v>
       </c>
     </row>
     <row r="4">
@@ -2378,7 +2378,7 @@
         <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04575376876416126</v>
+        <v>-0.04575376876416148</v>
       </c>
     </row>
     <row r="5">
@@ -2401,7 +2401,7 @@
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1727099906449601</v>
+        <v>-0.172709990644959</v>
       </c>
     </row>
     <row r="6">
@@ -2424,7 +2424,7 @@
         <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1253446356387648</v>
+        <v>-0.1253446356387649</v>
       </c>
     </row>
     <row r="7">
@@ -2447,7 +2447,7 @@
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -2470,7 +2470,7 @@
         <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07459263992149973</v>
+        <v>-0.07459263992149984</v>
       </c>
     </row>
     <row r="9">
@@ -2493,7 +2493,7 @@
         <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.470427421980361</v>
+        <v>1.470427421980361</v>
       </c>
     </row>
     <row r="10">
@@ -2516,7 +2516,7 @@
         <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5052215878935533</v>
+        <v>-0.5052215878935535</v>
       </c>
     </row>
     <row r="11">
@@ -2539,7 +2539,7 @@
         <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008710724872656299</v>
+        <v>-0.008710724872656301</v>
       </c>
     </row>
     <row r="12">
@@ -2562,7 +2562,7 @@
         <v>-1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8028664160496785</v>
+        <v>0.8028664160496786</v>
       </c>
     </row>
     <row r="13">
@@ -2585,7 +2585,7 @@
         <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009150928885288061</v>
+        <v>-0.009150928885288061</v>
       </c>
     </row>
     <row r="14">
@@ -2608,7 +2608,7 @@
         <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>16.39999999999998</v>
+        <v>-16.39999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -2631,7 +2631,7 @@
         <v>-1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3191435037497129</v>
+        <v>-0.319143503749713</v>
       </c>
     </row>
     <row r="16">
@@ -2654,7 +2654,7 @@
         <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.474138984094292</v>
+        <v>9.474138984094289</v>
       </c>
     </row>
     <row r="17">
@@ -2677,7 +2677,7 @@
         <v>-1</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.505788856569844</v>
+        <v>0.5057888565698441</v>
       </c>
     </row>
     <row r="18">
@@ -2700,7 +2700,7 @@
         <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>-26.64428389145156</v>
+        <v>26.64428389145158</v>
       </c>
     </row>
     <row r="19">
@@ -2723,7 +2723,7 @@
         <v>-1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06252433639880735</v>
+        <v>-0.06252433639880735</v>
       </c>
     </row>
     <row r="20">
@@ -2746,7 +2746,7 @@
         <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01401963213066041</v>
+        <v>-0.01401963213066041</v>
       </c>
     </row>
     <row r="21">
@@ -2769,7 +2769,7 @@
         <v>-1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04328581092829353</v>
+        <v>-0.04328581092829354</v>
       </c>
     </row>
     <row r="22">
@@ -2792,7 +2792,7 @@
         <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1670140024452139</v>
+        <v>-0.1670140024452139</v>
       </c>
     </row>
     <row r="23">
@@ -2815,7 +2815,7 @@
         <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.83247520544937</v>
+        <v>29.83247520544938</v>
       </c>
     </row>
     <row r="24">
@@ -2838,7 +2838,7 @@
         <v>-1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1932528743969769</v>
+        <v>-0.1932528743969769</v>
       </c>
     </row>
     <row r="25">
@@ -2861,7 +2861,7 @@
         <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2738725974465995</v>
+        <v>-0.2738725974465995</v>
       </c>
     </row>
     <row r="26">
@@ -2884,7 +2884,7 @@
         <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08440910103434697</v>
+        <v>-0.08440910103434698</v>
       </c>
     </row>
     <row r="27">
@@ -2907,7 +2907,7 @@
         <v>-1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01161020987881767</v>
+        <v>-0.01161020987881756</v>
       </c>
     </row>
     <row r="28">
@@ -2930,7 +2930,7 @@
         <v>-1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004834355907124279</v>
+        <v>-0.004834355907124279</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>-1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0755770973480429</v>
+        <v>-0.0755770973480429</v>
       </c>
     </row>
     <row r="30">
@@ -2976,7 +2976,7 @@
         <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09193882037830112</v>
+        <v>-0.09193882037830112</v>
       </c>
     </row>
     <row r="31">
@@ -2999,7 +2999,7 @@
         <v>-1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.046795344408082</v>
+        <v>-1.046795344408078</v>
       </c>
     </row>
     <row r="32">
@@ -3022,7 +3022,7 @@
         <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02390296919063748</v>
+        <v>-0.0239029691906376</v>
       </c>
     </row>
     <row r="33">
@@ -3045,7 +3045,7 @@
         <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07574184018831359</v>
+        <v>-0.07574184018831361</v>
       </c>
     </row>
     <row r="34">
@@ -3068,7 +3068,7 @@
         <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01649291832456161</v>
+        <v>-0.01649291832456161</v>
       </c>
     </row>
     <row r="35">
@@ -3091,7 +3091,7 @@
         <v>-1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0249510872910846</v>
+        <v>-0.0249510872910846</v>
       </c>
     </row>
     <row r="36">
@@ -3114,7 +3114,7 @@
         <v>-1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141574536755964</v>
+        <v>-0.141574536755964</v>
       </c>
     </row>
     <row r="37">
@@ -3137,7 +3137,7 @@
         <v>-1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02806338260654095</v>
+        <v>-0.02806338260654095</v>
       </c>
     </row>
     <row r="38">
@@ -3160,7 +3160,7 @@
         <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004028629922603566</v>
+        <v>-0.004028629922603566</v>
       </c>
     </row>
     <row r="39">
@@ -3183,7 +3183,7 @@
         <v>-1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2370031058925203</v>
+        <v>-0.2370031058925203</v>
       </c>
     </row>
     <row r="40">
@@ -3206,7 +3206,7 @@
         <v>-1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02217595738095313</v>
+        <v>-0.02217595738095313</v>
       </c>
     </row>
     <row r="41">
@@ -3229,7 +3229,7 @@
         <v>-1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08317919580256232</v>
+        <v>-0.08317919580256233</v>
       </c>
     </row>
     <row r="42">
@@ -3252,7 +3252,7 @@
         <v>-1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.04997185360495811</v>
+        <v>-0.049971853604958</v>
       </c>
     </row>
     <row r="43">
@@ -3275,7 +3275,7 @@
         <v>-1</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.04623960991172896</v>
+        <v>0.04623960991172897</v>
       </c>
     </row>
     <row r="44">
@@ -3298,7 +3298,7 @@
         <v>-1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1439221938667963</v>
+        <v>-0.1439221938667963</v>
       </c>
     </row>
     <row r="45">
@@ -3321,11 +3321,11 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8028664160496785</v>
+        <v>0.8028664160496786</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3335,7 +3335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,7 +3385,7 @@
         <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.670450635229503</v>
+        <v>7.285701395967554</v>
       </c>
     </row>
     <row r="3">
@@ -3408,7 +3408,7 @@
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.002714094857586294</v>
+        <v>7.428078540816448</v>
       </c>
     </row>
     <row r="4">
@@ -3431,838 +3431,884 @@
         <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1897449509157664</v>
+        <v>-0.1955363858757678</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>arg__L_e</t>
+          <t>ala__L_e</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EX_arg__L_e</t>
+          <t>EX_ala__L_e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>arg__L_e</t>
+          <t>ala__L_e</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04250752266693387</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>asn__L_e</t>
+          <t>arg__L_e</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EX_asn__L_e</t>
+          <t>EX_arg__L_e</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>asn__L_e</t>
+          <t>arg__L_e</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-0.04380494613791389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>asp__L_e</t>
+          <t>asn__L_e</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EX_asp__L_e</t>
+          <t>EX_asn__L_e</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>asp__L_e</t>
+          <t>asn__L_e</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>btn_e</t>
+          <t>asp__L_e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EX_btn_e</t>
+          <t>EX_asp__L_e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>btn_e</t>
+          <t>asp__L_e</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0021812166481408</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>cbl1_e</t>
+          <t>btn_e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EX_cbl1_e</t>
+          <t>EX_btn_e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cbl1_e</t>
+          <t>btn_e</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003372933035967086</v>
+        <v>-0.002247792197526831</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>co2_e</t>
+          <t>cbl1_e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EX_co2_e</t>
+          <t>EX_cbl1_e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>co2_e</t>
+          <t>cbl1_e</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.238711643604625</v>
+        <v>-0.0003475882401452263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>cys__L_e</t>
+          <t>co2_e</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EX_cys__L_e</t>
+          <t>EX_co2_e</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cys__L_e</t>
+          <t>co2_e</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009053175090272703</v>
+        <v>2.077848563198848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>e_Biomass_c</t>
+          <t>cys__L_e</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EX_e_Biomass</t>
+          <t>EX_cys__L_e</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>e_Biomass_c</t>
+          <t>cys__L_e</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>-1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3074127812583928</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>etoh_e</t>
+          <t>e_Biomass_c</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EX_etoh_e</t>
+          <t>EX_e_Biomass</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>etoh_e</t>
+          <t>e_Biomass_c</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02004689882439454</v>
+        <v>0.3167956982730826</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>fol_e</t>
+          <t>etoh_e</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EX_fol_e</t>
+          <t>EX_etoh_e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fol_e</t>
+          <t>etoh_e</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001196512027213915</v>
+        <v>1.123694305385394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>for_e</t>
+          <t>fol_e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EX_for_e</t>
+          <t>EX_fol_e</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>for_e</t>
+          <t>fol_e</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>-1</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6340546820222819</v>
+        <v>-0.001233032216818267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>glc__aD_e</t>
+          <t>for_e</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EX_glc__aD_e</t>
+          <t>EX_for_e</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>glc__aD_e</t>
+          <t>for_e</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>8.83</v>
+        <v>5.993506646074545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>glu__L_e</t>
+          <t>glc__aD_e</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EX_glu__L_e</t>
+          <t>EX_glc__aD_e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>glu__L_e</t>
+          <t>glc__aD_e</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>-1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1025535728625322</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>h2o_e</t>
+          <t>glu__L_e</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EX_h2o_e</t>
+          <t>EX_glu__L_e</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>h2o_e</t>
+          <t>glu__L_e</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.251709506874493</v>
+        <v>-0.1456795408710723</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>h_e</t>
+          <t>gly_e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EX_h_e</t>
+          <t>EX_gly_e</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>h_e</t>
+          <t>gly_e</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>-1</v>
       </c>
       <c r="E19" t="n">
-        <v>-13.99244274105225</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>his__L_e</t>
+          <t>h2o_e</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EX_his__L_e</t>
+          <t>EX_h2o_e</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>his__L_e</t>
+          <t>h2o_e</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02193817743974807</v>
+        <v>-5.50848031905719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ile__L_e</t>
+          <t>h2s_e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EX_ile__L_e</t>
+          <t>EX_h2s_e</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ile__L_e</t>
+          <t>h2s_e</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>-1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05961287208496036</v>
+        <v>0.9934674370378322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>lac__L_e</t>
+          <t>h_e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EX_lac__L_e</t>
+          <t>EX_h_e</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>lac__L_e</t>
+          <t>h_e</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.71136873944162</v>
+        <v>19.22659241406573</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>leu__L_e</t>
+          <t>his__L_e</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EX_leu__L_e</t>
+          <t>EX_his__L_e</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>leu__L_e</t>
+          <t>his__L_e</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09523370959876074</v>
+        <v>-0.02260777906635603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>lys__L_e</t>
+          <t>ile__L_e</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EX_lys__L_e</t>
+          <t>EX_ile__L_e</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>lys__L_e</t>
+          <t>ile__L_e</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>-1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07329271054928098</v>
+        <v>-0.06143238859787447</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>met__L_e</t>
+          <t>lac__D_e</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EX_met__L_e</t>
+          <t>EX_lac__D_e</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>met__L_e</t>
+          <t>lac__D_e</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0232946631517072</v>
+        <v>14.83686373419105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>nac_e</t>
+          <t>leu__L_e</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EX_nac_e</t>
+          <t>EX_leu__L_e</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nac_e</t>
+          <t>leu__L_e</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001517819866183601</v>
+        <v>-0.098140452742323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>phe__L_e</t>
+          <t>lys__L_e</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EX_phe__L_e</t>
+          <t>EX_lys__L_e</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>phe__L_e</t>
+          <t>lys__L_e</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>-1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03935216547823948</v>
+        <v>-0.07552976594447466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>pi_e</t>
+          <t>met__L_e</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EX_pi_e</t>
+          <t>EX_met__L_e</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pi_e</t>
+          <t>met__L_e</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>-1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4940827505082535</v>
+        <v>-0.0268026027441637</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>pnto__R_e</t>
+          <t>nac_e</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EX_pnto__R_e</t>
+          <t>EX_nac_e</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>pnto__R_e</t>
+          <t>nac_e</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>-1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003124824637698787</v>
+        <v>-0.001564147080651779</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>pro__L_e</t>
+          <t>phe__L_e</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EX_pro__L_e</t>
+          <t>EX_phe__L_e</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pro__L_e</t>
+          <t>phe__L_e</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03881120284543144</v>
+        <v>-0.04055328047911612</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>pydx_e</t>
+          <t>pi_e</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EX_pydx_e</t>
+          <t>EX_pi_e</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pydx_e</t>
+          <t>pi_e</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>-1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002156439177971374</v>
+        <v>-0.5091632472508409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ribflv_e</t>
+          <t>pnto__R_e</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EX_ribflv_e</t>
+          <t>EX_pnto__R_e</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ribflv_e</t>
+          <t>pnto__R_e</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003261564382032072</v>
+        <v>-0.003220201186913732</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ser__L_e</t>
+          <t>pydx_e</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EX_ser__L_e</t>
+          <t>EX_pydx_e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ser__L_e</t>
+          <t>pydx_e</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2621342836439835</v>
+        <v>-0.00222225846424602</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>thm_e</t>
+          <t>ribflv_e</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EX_thm_e</t>
+          <t>EX_ribflv_e</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>thm_e</t>
+          <t>ribflv_e</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002007774356954815</v>
+        <v>-0.003361114530238018</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>thr__L_e</t>
+          <t>ser__L_e</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EX_thr__L_e</t>
+          <t>EX_ser__L_e</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>thr__L_e</t>
+          <t>ser__L_e</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>-1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09511963948319749</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>trp__L_e</t>
+          <t>thm_e</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EX_trp__L_e</t>
+          <t>EX_thm_e</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>trp__L_e</t>
+          <t>thm_e</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>-1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01038116656520849</v>
+        <v>-0.002069056064561157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>tyr__L_e</t>
+          <t>thr__L_e</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EX_tyr__L_e</t>
+          <t>EX_thr__L_e</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tyr__L_e</t>
+          <t>thr__L_e</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>-1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03015868476884442</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ura_e</t>
+          <t>trp__L_e</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EX_ura_e</t>
+          <t>EX_trp__L_e</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ura_e</t>
+          <t>trp__L_e</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1608635877447141</v>
+        <v>-0.01069802269590772</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>val__L_e</t>
+          <t>tyr__L_e</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EX_val__L_e</t>
+          <t>EX_tyr__L_e</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>val__L_e</t>
+          <t>tyr__L_e</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>-1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06610020081076329</v>
+        <v>-0.03107919443438237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>ura_e</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>EX_ura_e</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ura_e</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.1657734997149168</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>val__L_e</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EX_val__L_e</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>val__L_e</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.06811772492385608</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
           <t>e_Biomass</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>e_Biomass</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>e_Biomass</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D42" t="n">
         <v>1</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.3074127812583928</v>
+      <c r="E42" t="n">
+        <v>0.3167956982730826</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>